--- a/UrenRegistratie.xlsx
+++ b/UrenRegistratie.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -687,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -724,7 +723,7 @@
       </c>
       <c r="D2" s="9">
         <f>SUM(C2:C172)</f>
-        <v>24.75</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -781,7 +780,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="5">
-        <v>8.15</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -791,7 +790,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D9" s="8"/>
     </row>

--- a/UrenRegistratie.xlsx
+++ b/UrenRegistratie.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="D2" s="9">
         <f>SUM(C2:C172)</f>
-        <v>33.200000000000003</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -800,7 +800,7 @@
         <v>43355</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D10" s="8"/>
     </row>

--- a/UrenRegistratie.xlsx
+++ b/UrenRegistratie.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="D2" s="9">
         <f>SUM(C2:C172)</f>
-        <v>41.5</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="D12" s="8"/>
     </row>

--- a/UrenRegistratie.xlsx
+++ b/UrenRegistratie.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="D2" s="9">
         <f>SUM(C2:C172)</f>
-        <v>49.6</v>
+        <v>57.900000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D14" s="8"/>
     </row>

--- a/UrenRegistratie.xlsx
+++ b/UrenRegistratie.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="D2" s="9">
         <f>SUM(C2:C172)</f>
-        <v>57.900000000000006</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="5">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D15" s="8"/>
     </row>

--- a/UrenRegistratie.xlsx
+++ b/UrenRegistratie.xlsx
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="D2" s="9">
         <f>SUM(C2:C172)</f>
-        <v>66.2</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
         <v>43362</v>
       </c>
       <c r="C16" s="5">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D16" s="8"/>
     </row>
